--- a/translation/xlsx/_meak_011.xlsx
+++ b/translation/xlsx/_meak_011.xlsx
@@ -5440,7 +5440,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="25.5"/>
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="62.13"/>
     <col customWidth="1" min="5" max="5" width="33.0"/>
@@ -12724,7 +12725,7 @@
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="2"/>
-      <c r="B346" s="7" t="s">
+      <c r="B346" s="5" t="s">
         <v>1336</v>
       </c>
       <c r="C346" s="1" t="s">
